--- a/화면테이블.xlsx
+++ b/화면테이블.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\javaedu9\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\javaedu9\project\myapp3\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="55">
   <si>
     <t>기능</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -70,14 +70,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/product</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/product/{pid}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>요청데이터(PayLoad)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -90,31 +82,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/product/{pid}/edit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>수정처리</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>삭제</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>GET</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/product/{pid}/delete</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>목록화면</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/product/all</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -128,51 +104,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>productController.save()</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>productController.findByProductId()</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>productController.updateForm()</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>productController.update()</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>productController.delete()</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>productController.list()</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>화면
 (view)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>productController.saveForm()</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>saveForm.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>detailForm.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>updateForm.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>all.html</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -181,18 +117,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>UpdateForm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SaveForm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DetailForm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Entity 객체</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -201,11 +125,127 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ProductSVC.save(Product product)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ProductDAO.save(Product product)</t>
+    <t>삭제처리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/products</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/products/{pid}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/products/{pid}/edit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/products/{pid}/del</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/products/add</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/products/add</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DELETE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PATCH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/products/{pid}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/products/{pid}/detail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/products/all</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/products</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/products?pid=x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>editForm.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>itemForm.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AddForm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ItemForm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EditForm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>addForm.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>productController.addForm()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>productController.add()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>productController.findById()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>productController.editForm()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>productController.edit()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>productController.del()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>productController.all()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>쿼리스트링</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Product ProductDAO.insert(Product product)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Product ProductSVC.save(Product product)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Product ProductSVC.findByld(Long product)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -445,7 +485,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -495,6 +535,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -777,10 +820,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -790,8 +833,9 @@
     <col min="4" max="4" width="20.25" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="20.25" customWidth="1"/>
     <col min="7" max="7" width="34.25" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="27.25" customWidth="1"/>
-    <col min="9" max="10" width="33" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="41" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="42.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -799,25 +843,25 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="G1" s="7" t="s">
         <v>2</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="I1" s="7" t="s">
         <v>3</v>
@@ -826,7 +870,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
         <v>5</v>
       </c>
@@ -834,15 +878,15 @@
         <v>8</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="D2" s="10"/>
       <c r="E2" s="10" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="F2" s="10"/>
       <c r="G2" s="10" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="H2" s="10"/>
       <c r="I2" s="10"/>
@@ -856,26 +900,26 @@
         <v>9</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="I3" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="J3" s="10" t="s">
-        <v>44</v>
+        <v>23</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="J3" s="13" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -886,39 +930,43 @@
         <v>10</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
+        <v>46</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>54</v>
+      </c>
       <c r="J4" s="13"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="12" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
@@ -926,23 +974,23 @@
     </row>
     <row r="6" spans="1:10" ht="33" x14ac:dyDescent="0.3">
       <c r="A6" s="12" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
@@ -950,19 +998,19 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="12" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
@@ -970,25 +1018,126 @@
     </row>
     <row r="8" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="14" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D8" s="15"/>
       <c r="E8" s="15" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="F8" s="15"/>
       <c r="G8" s="15" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="H8" s="15"/>
       <c r="I8" s="15"/>
       <c r="J8" s="16"/>
+    </row>
+    <row r="9" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="10" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="11"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="13"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" s="17" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" s="13"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" s="13"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" s="13"/>
+    </row>
+    <row r="17" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="D17" s="16"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
